--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_0/cosinor_per_day_fixed_period_3_sawtooth_0_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_0/cosinor_per_day_fixed_period_3_sawtooth_0_.xlsx
@@ -599,51 +599,51 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[0.34688592162279797, 13.057883221150394]</t>
+          <t>[-0.1534658717471018, 13.558235014520294]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.03919704453986084</v>
+        <v>0.05512751251285741</v>
       </c>
       <c r="O2" t="n">
-        <v>0.03919704453986084</v>
+        <v>0.05512751251285741</v>
       </c>
       <c r="P2" t="n">
         <v>-1.622684493746079</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[-3.00636894577762, -0.23900004171453837]</t>
+          <t>[-3.018947895341543, -0.22642109215061534]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.02256347435364048</v>
+        <v>0.02373835271602731</v>
       </c>
       <c r="S2" t="n">
-        <v>0.02256347435364048</v>
+        <v>0.02373835271602731</v>
       </c>
       <c r="T2" t="n">
         <v>9.125139680537483</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[5.1440885989731715, 13.106190762101795]</t>
+          <t>[5.145471555984354, 13.104807805090612]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>3.257859438421384e-05</v>
+        <v>3.240845782781498e-05</v>
       </c>
       <c r="W2" t="n">
-        <v>3.257859438421384e-05</v>
+        <v>3.240845782781498e-05</v>
       </c>
       <c r="X2" t="n">
         <v>6.588168168168309</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.9703503503503699</v>
+        <v>0.9192792792792979</v>
       </c>
       <c r="Z2" t="n">
-        <v>12.20598598598625</v>
+        <v>12.25705705705732</v>
       </c>
     </row>
     <row r="3">
@@ -685,51 +685,51 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[-1.3152593927595593, 14.366347073407868]</t>
+          <t>[-1.171715976062032, 14.22280365671034]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.1006250915661873</v>
+        <v>0.09461958417285343</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1006250915661873</v>
+        <v>0.09461958417285343</v>
       </c>
       <c r="P3" t="n">
         <v>-1.874263485024541</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[-3.6101585248459287, -0.13836844520315417]</t>
+          <t>[-3.660474323101621, -0.08805264694746207]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.03495285123963887</v>
+        <v>0.04014509924346088</v>
       </c>
       <c r="S3" t="n">
-        <v>0.03495285123963887</v>
+        <v>0.04014509924346088</v>
       </c>
       <c r="T3" t="n">
         <v>10.09701114379058</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[5.7587318260306635, 14.435290461550492]</t>
+          <t>[5.762308671957012, 14.431713615624144]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>2.582285325991585e-05</v>
+        <v>2.549751884362017e-05</v>
       </c>
       <c r="W3" t="n">
-        <v>2.582285325991585e-05</v>
+        <v>2.549751884362017e-05</v>
       </c>
       <c r="X3" t="n">
         <v>7.609589589589753</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.5617817817817929</v>
+        <v>0.3574974974975049</v>
       </c>
       <c r="Z3" t="n">
-        <v>14.65739739739771</v>
+        <v>14.861681681682</v>
       </c>
     </row>
     <row r="4">
@@ -771,51 +771,51 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[-1.0044709427003102, 14.072724901805827]</t>
+          <t>[-1.035746136892545, 14.104000095998062]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.08768158406749715</v>
+        <v>0.08895706566849415</v>
       </c>
       <c r="O4" t="n">
-        <v>0.08768158406749715</v>
+        <v>0.08895706566849415</v>
       </c>
       <c r="P4" t="n">
         <v>-2.125842476303003</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[-4.163632305658544, -0.08805264694746207]</t>
+          <t>[-4.1762112552224675, -0.07547369738353815]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.04126174213827594</v>
+        <v>0.04246526634611536</v>
       </c>
       <c r="S4" t="n">
-        <v>0.04126174213827594</v>
+        <v>0.04246526634611536</v>
       </c>
       <c r="T4" t="n">
         <v>8.892079342628529</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[4.934402031917603, 12.849756653339455]</t>
+          <t>[4.932300433674429, 12.851858251582629]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>4.385572250131808e-05</v>
+        <v>4.419879816786043e-05</v>
       </c>
       <c r="W4" t="n">
-        <v>4.385572250131808e-05</v>
+        <v>4.419879816786043e-05</v>
       </c>
       <c r="X4" t="n">
         <v>8.631011011011196</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.3574974974975067</v>
+        <v>0.306426426426432</v>
       </c>
       <c r="Z4" t="n">
-        <v>16.90452452452489</v>
+        <v>16.95559559559596</v>
       </c>
     </row>
     <row r="5">
@@ -857,51 +857,51 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[-0.8139709743182859, 14.215273057822376]</t>
+          <t>[-0.5113816428352216, 13.912683726339312]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.07922002491312541</v>
+        <v>0.06781479712738681</v>
       </c>
       <c r="O5" t="n">
-        <v>0.07922002491312541</v>
+        <v>0.06781479712738681</v>
       </c>
       <c r="P5" t="n">
         <v>-2.679316257115619</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[-4.59131659083193, -0.767315923399309]</t>
+          <t>[-4.603895540395853, -0.754736973835386]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.007072578120801865</v>
+        <v>0.007425163044326943</v>
       </c>
       <c r="S5" t="n">
-        <v>0.007072578120801865</v>
+        <v>0.007425163044326943</v>
       </c>
       <c r="T5" t="n">
         <v>8.798482050614847</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[4.834317711948517, 12.762646389281178]</t>
+          <t>[4.836214940865591, 12.760749160364103]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>5.240021396968331e-05</v>
+        <v>5.203883876658821e-05</v>
       </c>
       <c r="W5" t="n">
-        <v>5.240021396968331e-05</v>
+        <v>5.203883876658821e-05</v>
       </c>
       <c r="X5" t="n">
         <v>10.87813813813837</v>
       </c>
       <c r="Y5" t="n">
-        <v>3.115335335335404</v>
+        <v>3.064264264264332</v>
       </c>
       <c r="Z5" t="n">
-        <v>18.64094094094134</v>
+        <v>18.69201201201242</v>
       </c>
     </row>
     <row r="6">
@@ -943,51 +943,51 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[-1.4899479664516146, 14.450698114181318]</t>
+          <t>[-1.1795463000097346, 14.140296447739438]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.1084815952756641</v>
+        <v>0.09528694714022223</v>
       </c>
       <c r="O6" t="n">
-        <v>0.1084815952756641</v>
+        <v>0.09528694714022223</v>
       </c>
       <c r="P6" t="n">
         <v>-2.893158399702312</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-4.729685036035084, -1.05663176336954]</t>
+          <t>[-4.742263985599006, -1.0440528138056178]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.002719759002337785</v>
+        <v>0.002889372130075563</v>
       </c>
       <c r="S6" t="n">
-        <v>0.002719759002337785</v>
+        <v>0.002889372130075563</v>
       </c>
       <c r="T6" t="n">
         <v>9.865194339697208</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[5.498857883872844, 14.231530795521572]</t>
+          <t>[5.501218286381442, 14.229170393012975]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>4.03908124264607e-05</v>
+        <v>4.006896393615733e-05</v>
       </c>
       <c r="W6" t="n">
-        <v>4.03908124264607e-05</v>
+        <v>4.006896393615733e-05</v>
       </c>
       <c r="X6" t="n">
         <v>11.7463463463466</v>
       </c>
       <c r="Y6" t="n">
-        <v>4.289969969970064</v>
+        <v>4.238898898898996</v>
       </c>
       <c r="Z6" t="n">
-        <v>19.20272272272314</v>
+        <v>19.25379379379421</v>
       </c>
     </row>
     <row r="7">
@@ -1029,14 +1029,14 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[-0.08340907779903084, 13.541767839689014]</t>
+          <t>[-0.08929624896798671, 13.54765501085797]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.05275088150048757</v>
+        <v>0.05294728186435527</v>
       </c>
       <c r="O7" t="n">
-        <v>0.05275088150048757</v>
+        <v>0.05294728186435527</v>
       </c>
       <c r="P7" t="n">
         <v>-3.132158441416851</v>
@@ -1057,14 +1057,14 @@
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[4.883351368540691, 12.882551554366135]</t>
+          <t>[4.880393862041759, 12.885509060865067]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>5.19060635193469e-05</v>
+        <v>5.246372511669151e-05</v>
       </c>
       <c r="W7" t="n">
-        <v>5.19060635193469e-05</v>
+        <v>5.246372511669151e-05</v>
       </c>
       <c r="X7" t="n">
         <v>12.71669669669697</v>
@@ -1115,51 +1115,51 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[-1.1474857465524142, 14.226526315234363]</t>
+          <t>[-1.1008571175800785, 14.179897686262027]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.09351270719141946</v>
+        <v>0.09159010742149509</v>
       </c>
       <c r="O8" t="n">
-        <v>0.09351270719141946</v>
+        <v>0.09159010742149509</v>
       </c>
       <c r="P8" t="n">
         <v>2.610132034514042</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[0.4717106086471152, 4.748553460380968]</t>
+          <t>[0.05660527303765317, 5.163658795990431]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.01786971380497704</v>
+        <v>0.04533471763134544</v>
       </c>
       <c r="S8" t="n">
-        <v>0.01786971380497704</v>
+        <v>0.04533471763134544</v>
       </c>
       <c r="T8" t="n">
         <v>8.917770058394741</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[4.944675737790808, 12.890864378998673]</t>
+          <t>[4.942190781597072, 12.89334933519241]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>4.450589153126572e-05</v>
+        <v>4.491566888709109e-05</v>
       </c>
       <c r="W8" t="n">
-        <v>4.450589153126572e-05</v>
+        <v>4.491566888709109e-05</v>
       </c>
       <c r="X8" t="n">
         <v>14.91275275275308</v>
       </c>
       <c r="Y8" t="n">
-        <v>6.230670670670804</v>
+        <v>4.545325325325422</v>
       </c>
       <c r="Z8" t="n">
-        <v>23.59483483483535</v>
+        <v>25.28018018018073</v>
       </c>
     </row>
     <row r="9">
@@ -1201,51 +1201,51 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[-1.9047896801307402, 14.85138548663162]</t>
+          <t>[-1.841656250441396, 14.788252056942277]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.1266688252266037</v>
+        <v>0.1238857682086514</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1266688252266037</v>
+        <v>0.1238857682086514</v>
       </c>
       <c r="P9" t="n">
         <v>2.345974093671657</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-0.7861843477451949, 5.478132535088508]</t>
+          <t>[-0.792473822527155, 5.484422009870468]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.1384019999760158</v>
+        <v>0.1391749614514639</v>
       </c>
       <c r="S9" t="n">
-        <v>0.1384019999760158</v>
+        <v>0.1391749614514639</v>
       </c>
       <c r="T9" t="n">
         <v>10.02706615809556</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[5.7264899147935395, 14.327642401397576]</t>
+          <t>[5.725174616208108, 14.328957699983008]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>2.512648761654468e-05</v>
+        <v>2.524505588397119e-05</v>
       </c>
       <c r="W9" t="n">
-        <v>2.512648761654468e-05</v>
+        <v>2.524505588397119e-05</v>
       </c>
       <c r="X9" t="n">
         <v>15.98524524524559</v>
       </c>
       <c r="Y9" t="n">
-        <v>3.268548548548617</v>
+        <v>3.243013013013087</v>
       </c>
       <c r="Z9" t="n">
-        <v>28.70194194194256</v>
+        <v>28.7274774774781</v>
       </c>
     </row>
     <row r="10">
@@ -1287,51 +1287,51 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[-1.1029433860293771, 14.735239746832157]</t>
+          <t>[-1.1759274130162325, 14.808223773819012]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.08983919750601466</v>
+        <v>0.09271647090797575</v>
       </c>
       <c r="O10" t="n">
-        <v>0.08983919750601466</v>
+        <v>0.09271647090797575</v>
       </c>
       <c r="P10" t="n">
         <v>1.968605606753965</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[0.14465791998511612, 3.792553293522813]</t>
+          <t>[0.16981581911296217, 3.767395394394967]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.03501706813313255</v>
+        <v>0.03266342707563363</v>
       </c>
       <c r="S10" t="n">
-        <v>0.03501706813313255</v>
+        <v>0.03266342707563363</v>
       </c>
       <c r="T10" t="n">
         <v>9.747460180530851</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[5.549098179088202, 13.9458221819735]</t>
+          <t>[5.552011429438236, 13.942908931623466]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>2.681151871208876e-05</v>
+        <v>2.652786516055272e-05</v>
       </c>
       <c r="W10" t="n">
-        <v>2.681151871208876e-05</v>
+        <v>2.652786516055272e-05</v>
       </c>
       <c r="X10" t="n">
         <v>16.89249249249277</v>
       </c>
       <c r="Y10" t="n">
-        <v>9.751351351351513</v>
+        <v>9.849849849850013</v>
       </c>
       <c r="Z10" t="n">
-        <v>24.03363363363403</v>
+        <v>23.93513513513553</v>
       </c>
     </row>
     <row r="11">
@@ -1373,51 +1373,51 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[-0.43681541843262295, 14.073730675524377]</t>
+          <t>[-0.7870469925739307, 14.423962249665685]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.06482140175821094</v>
+        <v>0.07766091994408875</v>
       </c>
       <c r="O11" t="n">
-        <v>0.06482140175821094</v>
+        <v>0.07766091994408875</v>
       </c>
       <c r="P11" t="n">
         <v>1.867974010242579</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[0.19497371824080822, 3.5409743022443507]</t>
+          <t>[0.20755266780473214, 3.528395352680427]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0.02946522488600989</v>
+        <v>0.02831859753591637</v>
       </c>
       <c r="S11" t="n">
-        <v>0.02946522488600989</v>
+        <v>0.02831859753591637</v>
       </c>
       <c r="T11" t="n">
         <v>9.722424747483709</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[5.526856428089953, 13.917993066877465]</t>
+          <t>[5.531141472571845, 13.913708022395573]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>2.760477449892385e-05</v>
+        <v>2.71768716975096e-05</v>
       </c>
       <c r="W11" t="n">
-        <v>2.760477449892385e-05</v>
+        <v>2.71768716975096e-05</v>
       </c>
       <c r="X11" t="n">
         <v>17.28648648648677</v>
       </c>
       <c r="Y11" t="n">
-        <v>10.73633633633652</v>
+        <v>10.78558558558577</v>
       </c>
       <c r="Z11" t="n">
-        <v>23.83663663663703</v>
+        <v>23.78738738738777</v>
       </c>
     </row>
     <row r="12">
@@ -1459,51 +1459,51 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[0.6215366445685984, 13.020000351493573]</t>
+          <t>[0.8249184445311037, 12.816618551531068]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.03178893992995335</v>
+        <v>0.02668654386422853</v>
       </c>
       <c r="O12" t="n">
-        <v>0.03178893992995335</v>
+        <v>0.02668654386422853</v>
       </c>
       <c r="P12" t="n">
         <v>1.779921363295118</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[0.5346053564667317, 3.025237370123505]</t>
+          <t>[0.5471843060306547, 3.012658420559582]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>0.006089472921712247</v>
+        <v>0.005628918868783694</v>
       </c>
       <c r="S12" t="n">
-        <v>0.006089472921712247</v>
+        <v>0.005628918868783694</v>
       </c>
       <c r="T12" t="n">
         <v>7.778997877132688</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[4.304738985746727, 11.253256768518648]</t>
+          <t>[4.303095213695277, 11.254900540570098]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>4.613426144506327e-05</v>
+        <v>4.645425796745428e-05</v>
       </c>
       <c r="W12" t="n">
-        <v>4.613426144506327e-05</v>
+        <v>4.645425796745428e-05</v>
       </c>
       <c r="X12" t="n">
         <v>17.63123123123152</v>
       </c>
       <c r="Y12" t="n">
-        <v>12.75555555555576</v>
+        <v>12.80480480480501</v>
       </c>
       <c r="Z12" t="n">
-        <v>22.50690690690728</v>
+        <v>22.45765765765803</v>
       </c>
     </row>
     <row r="13">
@@ -1545,51 +1545,51 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[0.29782784650851113, 12.987079912138688]</t>
+          <t>[0.3157668208163269, 12.969140937830872]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0.04057383648465795</v>
+        <v>0.04003383262178528</v>
       </c>
       <c r="O13" t="n">
-        <v>0.04057383648465795</v>
+        <v>0.04003383262178528</v>
       </c>
       <c r="P13" t="n">
         <v>1.641552918091964</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[0.3836579616996545, 2.8994478744842738]</t>
+          <t>[0.40881586082750054, 2.8742899753564277]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>0.0116935285376909</v>
+        <v>0.01019575836543307</v>
       </c>
       <c r="S13" t="n">
-        <v>0.0116935285376909</v>
+        <v>0.01019575836543307</v>
       </c>
       <c r="T13" t="n">
         <v>7.969691717065167</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[4.330119414541269, 11.609264019589066]</t>
+          <t>[4.328821352819722, 11.610562081310611]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>6.358381272408842e-05</v>
+        <v>6.390647196985455e-05</v>
       </c>
       <c r="W13" t="n">
-        <v>6.358381272408842e-05</v>
+        <v>6.390647196985455e-05</v>
       </c>
       <c r="X13" t="n">
         <v>18.17297297297327</v>
       </c>
       <c r="Y13" t="n">
-        <v>13.24804804804827</v>
+        <v>13.34654654654677</v>
       </c>
       <c r="Z13" t="n">
-        <v>23.09789789789828</v>
+        <v>22.99939939939978</v>
       </c>
     </row>
     <row r="14">
@@ -1631,51 +1631,51 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[0.32922710810730926, 12.762223180566165]</t>
+          <t>[0.08414062820718904, 13.007309660466285]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0.03948559761955783</v>
+        <v>0.04721150351705639</v>
       </c>
       <c r="O14" t="n">
-        <v>0.03948559761955783</v>
+        <v>0.04721150351705639</v>
       </c>
       <c r="P14" t="n">
         <v>1.50318447288881</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[0.16981581911296217, 2.8365531266646578]</t>
+          <t>[0.14465791998511524, 2.8617110257925047]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>0.02800605208584561</v>
+        <v>0.03088249893073725</v>
       </c>
       <c r="S14" t="n">
-        <v>0.02800605208584561</v>
+        <v>0.03088249893073725</v>
       </c>
       <c r="T14" t="n">
         <v>8.09552189972908</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[4.374748610678397, 11.816295188779764]</t>
+          <t>[4.375790744684283, 11.815253054773876]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>6.960571663561232e-05</v>
+        <v>6.933169199685452e-05</v>
       </c>
       <c r="W14" t="n">
-        <v>6.960571663561232e-05</v>
+        <v>6.933169199685452e-05</v>
       </c>
       <c r="X14" t="n">
         <v>18.71471471471502</v>
       </c>
       <c r="Y14" t="n">
-        <v>13.49429429429452</v>
+        <v>13.39579579579601</v>
       </c>
       <c r="Z14" t="n">
-        <v>23.93513513513553</v>
+        <v>24.03363363363403</v>
       </c>
     </row>
     <row r="15">
@@ -1717,51 +1717,51 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>[-0.1882336671206133, 13.3192126523377]</t>
+          <t>[-0.34270535968490456, 13.473684344901992]</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>0.0564513156684594</v>
+        <v>0.06196835135467404</v>
       </c>
       <c r="O15" t="n">
-        <v>0.0564513156684594</v>
+        <v>0.06196835135467404</v>
       </c>
       <c r="P15" t="n">
         <v>1.37739497724958</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>[-0.0691842226015762, 2.8239741771007356]</t>
+          <t>[-0.09434212172942225, 2.8491320762285817]</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>0.06149921519244184</v>
+        <v>0.06589800617748121</v>
       </c>
       <c r="S15" t="n">
-        <v>0.06149921519244184</v>
+        <v>0.06589800617748121</v>
       </c>
       <c r="T15" t="n">
         <v>8.282430661154187</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>[4.462213624974611, 12.102647697333763]</t>
+          <t>[4.4637983409665045, 12.101062981341869]</t>
         </is>
       </c>
       <c r="V15" t="n">
-        <v>7.316476511132208e-05</v>
+        <v>7.274049283467754e-05</v>
       </c>
       <c r="W15" t="n">
-        <v>7.316476511132208e-05</v>
+        <v>7.274049283467754e-05</v>
       </c>
       <c r="X15" t="n">
         <v>19.20720720720752</v>
       </c>
       <c r="Y15" t="n">
-        <v>13.54354354354376</v>
+        <v>13.44504504504527</v>
       </c>
       <c r="Z15" t="n">
-        <v>24.87087087087128</v>
+        <v>24.96936936936978</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_0/cosinor_per_day_fixed_period_3_sawtooth_0_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_0/cosinor_per_day_fixed_period_3_sawtooth_0_.xlsx
@@ -599,51 +599,51 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[-0.1534658717471018, 13.558235014520294]</t>
+          <t>[0.09726831290039861, 13.307500829872794]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.05512751251285741</v>
+        <v>0.04685668341770821</v>
       </c>
       <c r="O2" t="n">
-        <v>0.05512751251285741</v>
+        <v>0.04685668341770821</v>
       </c>
       <c r="P2" t="n">
         <v>-1.622684493746079</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[-3.018947895341543, -0.22642109215061534]</t>
+          <t>[-3.00636894577762, -0.23900004171453837]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.02373835271602731</v>
+        <v>0.02256347435364048</v>
       </c>
       <c r="S2" t="n">
-        <v>0.02373835271602731</v>
+        <v>0.02256347435364048</v>
       </c>
       <c r="T2" t="n">
         <v>9.125139680537483</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[5.145471555984354, 13.104807805090612]</t>
+          <t>[5.145869803496007, 13.10440955757896]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>3.240845782781498e-05</v>
+        <v>3.235960398084714e-05</v>
       </c>
       <c r="W2" t="n">
-        <v>3.240845782781498e-05</v>
+        <v>3.235960398084714e-05</v>
       </c>
       <c r="X2" t="n">
         <v>6.588168168168309</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.9192792792792979</v>
+        <v>0.9703503503503699</v>
       </c>
       <c r="Z2" t="n">
-        <v>12.25705705705732</v>
+        <v>12.20598598598625</v>
       </c>
     </row>
     <row r="3">
@@ -685,51 +685,51 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[-1.171715976062032, 14.22280365671034]</t>
+          <t>[-1.4528456728265375, 14.503933353474846]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.09461958417285343</v>
+        <v>0.1064546283864549</v>
       </c>
       <c r="O3" t="n">
-        <v>0.09461958417285343</v>
+        <v>0.1064546283864549</v>
       </c>
       <c r="P3" t="n">
         <v>-1.874263485024541</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[-3.660474323101621, -0.08805264694746207]</t>
+          <t>[-3.6730532726655447, -0.07547369738353815]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.04014509924346088</v>
+        <v>0.04149477197285556</v>
       </c>
       <c r="S3" t="n">
-        <v>0.04014509924346088</v>
+        <v>0.04149477197285556</v>
       </c>
       <c r="T3" t="n">
         <v>10.09701114379058</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[5.762308671957012, 14.431713615624144]</t>
+          <t>[5.759377551387162, 14.434644736193993]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>2.549751884362017e-05</v>
+        <v>2.576386059360836e-05</v>
       </c>
       <c r="W3" t="n">
-        <v>2.549751884362017e-05</v>
+        <v>2.576386059360836e-05</v>
       </c>
       <c r="X3" t="n">
         <v>7.609589589589753</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.3574974974975049</v>
+        <v>0.3064264264264303</v>
       </c>
       <c r="Z3" t="n">
-        <v>14.861681681682</v>
+        <v>14.91275275275308</v>
       </c>
     </row>
     <row r="4">
@@ -771,51 +771,51 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[-1.035746136892545, 14.104000095998062]</t>
+          <t>[-1.1106712865943376, 14.178925245699855]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.08895706566849415</v>
+        <v>0.09203169994078442</v>
       </c>
       <c r="O4" t="n">
-        <v>0.08895706566849415</v>
+        <v>0.09203169994078442</v>
       </c>
       <c r="P4" t="n">
         <v>-2.125842476303003</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[-4.1762112552224675, -0.07547369738353815]</t>
+          <t>[-4.1384744065306975, -0.11321054607530812]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.04246526634611536</v>
+        <v>0.03890164222639525</v>
       </c>
       <c r="S4" t="n">
-        <v>0.04246526634611536</v>
+        <v>0.03890164222639525</v>
       </c>
       <c r="T4" t="n">
         <v>8.892079342628529</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[4.932300433674429, 12.851858251582629]</t>
+          <t>[4.934430591245231, 12.849728094011827]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>4.419879816786043e-05</v>
+        <v>4.385107584670145e-05</v>
       </c>
       <c r="W4" t="n">
-        <v>4.419879816786043e-05</v>
+        <v>4.385107584670145e-05</v>
       </c>
       <c r="X4" t="n">
         <v>8.631011011011196</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.306426426426432</v>
+        <v>0.4596396396396525</v>
       </c>
       <c r="Z4" t="n">
-        <v>16.95559559559596</v>
+        <v>16.80238238238274</v>
       </c>
     </row>
     <row r="5">
@@ -857,51 +857,51 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[-0.5113816428352216, 13.912683726339312]</t>
+          <t>[-0.6296834855491245, 14.030985569053215]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.06781479712738681</v>
+        <v>0.07220662171986669</v>
       </c>
       <c r="O5" t="n">
-        <v>0.06781479712738681</v>
+        <v>0.07220662171986669</v>
       </c>
       <c r="P5" t="n">
         <v>-2.679316257115619</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[-4.603895540395853, -0.754736973835386]</t>
+          <t>[-4.528421843012315, -0.8302106712189241]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.007425163044326943</v>
+        <v>0.005475623041513389</v>
       </c>
       <c r="S5" t="n">
-        <v>0.007425163044326943</v>
+        <v>0.005475623041513389</v>
       </c>
       <c r="T5" t="n">
         <v>8.798482050614847</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[4.836214940865591, 12.760749160364103]</t>
+          <t>[4.836450157468269, 12.760513943761426]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>5.203883876658821e-05</v>
+        <v>5.199418213441831e-05</v>
       </c>
       <c r="W5" t="n">
-        <v>5.203883876658821e-05</v>
+        <v>5.199418213441831e-05</v>
       </c>
       <c r="X5" t="n">
         <v>10.87813813813837</v>
       </c>
       <c r="Y5" t="n">
-        <v>3.064264264264332</v>
+        <v>3.370690690690763</v>
       </c>
       <c r="Z5" t="n">
-        <v>18.69201201201242</v>
+        <v>18.38558558558599</v>
       </c>
     </row>
     <row r="6">
@@ -943,51 +943,51 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[-1.1795463000097346, 14.140296447739438]</t>
+          <t>[-1.6890684563395846, 14.649818604069289]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.09528694714022223</v>
+        <v>0.1171137069625428</v>
       </c>
       <c r="O6" t="n">
-        <v>0.09528694714022223</v>
+        <v>0.1171137069625428</v>
       </c>
       <c r="P6" t="n">
         <v>-2.893158399702312</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-4.742263985599006, -1.0440528138056178]</t>
+          <t>[-4.75484293516293, -1.0314738642416938]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.002889372130075563</v>
+        <v>0.00306643169770493</v>
       </c>
       <c r="S6" t="n">
-        <v>0.002889372130075563</v>
+        <v>0.00306643169770493</v>
       </c>
       <c r="T6" t="n">
         <v>9.865194339697208</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[5.501218286381442, 14.229170393012975]</t>
+          <t>[5.499943939315013, 14.230444740079403]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>4.006896393615733e-05</v>
+        <v>4.024245499523182e-05</v>
       </c>
       <c r="W6" t="n">
-        <v>4.006896393615733e-05</v>
+        <v>4.024245499523182e-05</v>
       </c>
       <c r="X6" t="n">
         <v>11.7463463463466</v>
       </c>
       <c r="Y6" t="n">
-        <v>4.238898898898996</v>
+        <v>4.18782782782792</v>
       </c>
       <c r="Z6" t="n">
-        <v>19.25379379379421</v>
+        <v>19.30486486486528</v>
       </c>
     </row>
     <row r="7">
@@ -1029,51 +1029,51 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[-0.08929624896798671, 13.54765501085797]</t>
+          <t>[0.001678917339720698, 13.456679844550262]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.05294728186435527</v>
+        <v>0.04994524556950486</v>
       </c>
       <c r="O7" t="n">
-        <v>0.05294728186435527</v>
+        <v>0.04994524556950486</v>
       </c>
       <c r="P7" t="n">
         <v>-3.132158441416851</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-4.528421843012315, -1.7358950398213873]</t>
+          <t>[-4.541000792576238, -1.7233160902574642]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>4.488458851192867e-05</v>
+        <v>5.114944449791103e-05</v>
       </c>
       <c r="S7" t="n">
-        <v>4.488458851192867e-05</v>
+        <v>5.114944449791103e-05</v>
       </c>
       <c r="T7" t="n">
         <v>8.882951461453413</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[4.880393862041759, 12.885509060865067]</t>
+          <t>[4.880361843009894, 12.885541079896932]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>5.246372511669151e-05</v>
+        <v>5.24697900030624e-05</v>
       </c>
       <c r="W7" t="n">
-        <v>5.246372511669151e-05</v>
+        <v>5.24697900030624e-05</v>
       </c>
       <c r="X7" t="n">
         <v>12.71669669669697</v>
       </c>
       <c r="Y7" t="n">
-        <v>7.04780780780796</v>
+        <v>6.996736736736888</v>
       </c>
       <c r="Z7" t="n">
-        <v>18.38558558558598</v>
+        <v>18.43665665665705</v>
       </c>
     </row>
     <row r="8">
@@ -1115,51 +1115,51 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[-1.1008571175800785, 14.179897686262027]</t>
+          <t>[-1.0678609338412226, 14.146901502523171]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.09159010742149509</v>
+        <v>0.0902355885119448</v>
       </c>
       <c r="O8" t="n">
-        <v>0.09159010742149509</v>
+        <v>0.0902355885119448</v>
       </c>
       <c r="P8" t="n">
         <v>2.610132034514042</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[0.05660527303765317, 5.163658795990431]</t>
+          <t>[-0.1320789704211931, 5.352343039449277]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.04533471763134544</v>
+        <v>0.06158821824554805</v>
       </c>
       <c r="S8" t="n">
-        <v>0.04533471763134544</v>
+        <v>0.06158821824554805</v>
       </c>
       <c r="T8" t="n">
         <v>8.917770058394741</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[4.942190781597072, 12.89334933519241]</t>
+          <t>[4.942549897778131, 12.89299021901135]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>4.491566888709109e-05</v>
+        <v>4.485625355643563e-05</v>
       </c>
       <c r="W8" t="n">
-        <v>4.491566888709109e-05</v>
+        <v>4.485625355643563e-05</v>
       </c>
       <c r="X8" t="n">
         <v>14.91275275275308</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.545325325325422</v>
+        <v>3.779259259259343</v>
       </c>
       <c r="Z8" t="n">
-        <v>25.28018018018073</v>
+        <v>26.04624624624681</v>
       </c>
     </row>
     <row r="9">
@@ -1201,51 +1201,51 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[-1.841656250441396, 14.788252056942277]</t>
+          <t>[-1.6190773472881315, 14.565673153789012]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.1238857682086514</v>
+        <v>0.1141437496458759</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1238857682086514</v>
+        <v>0.1141437496458759</v>
       </c>
       <c r="P9" t="n">
         <v>2.345974093671657</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-0.792473822527155, 5.484422009870468]</t>
+          <t>[-0.6981317007977328, 5.390079888141046]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.1391749614514639</v>
+        <v>0.1276218577963153</v>
       </c>
       <c r="S9" t="n">
-        <v>0.1391749614514639</v>
+        <v>0.1276218577963153</v>
       </c>
       <c r="T9" t="n">
         <v>10.02706615809556</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[5.725174616208108, 14.328957699983008]</t>
+          <t>[5.726675590779552, 14.327456725411563]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>2.524505588397119e-05</v>
+        <v>2.510978806524733e-05</v>
       </c>
       <c r="W9" t="n">
-        <v>2.524505588397119e-05</v>
+        <v>2.510978806524733e-05</v>
       </c>
       <c r="X9" t="n">
         <v>15.98524524524559</v>
       </c>
       <c r="Y9" t="n">
-        <v>3.243013013013087</v>
+        <v>3.626046046046126</v>
       </c>
       <c r="Z9" t="n">
-        <v>28.7274774774781</v>
+        <v>28.34444444444506</v>
       </c>
     </row>
     <row r="10">
@@ -1287,14 +1287,14 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[-1.1759274130162325, 14.808223773819012]</t>
+          <t>[-1.0525051210293714, 14.684801481832151]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.09271647090797575</v>
+        <v>0.08786425200205827</v>
       </c>
       <c r="O10" t="n">
-        <v>0.09271647090797575</v>
+        <v>0.08786425200205827</v>
       </c>
       <c r="P10" t="n">
         <v>1.968605606753965</v>
@@ -1315,14 +1315,14 @@
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[5.552011429438236, 13.942908931623466]</t>
+          <t>[5.547523965200683, 13.94739639586102]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>2.652786516055272e-05</v>
+        <v>2.696586678152535e-05</v>
       </c>
       <c r="W10" t="n">
-        <v>2.652786516055272e-05</v>
+        <v>2.696586678152535e-05</v>
       </c>
       <c r="X10" t="n">
         <v>16.89249249249277</v>
@@ -1373,51 +1373,51 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[-0.7870469925739307, 14.423962249665685]</t>
+          <t>[-0.4764689954212713, 14.113384252513026]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.07766091994408875</v>
+        <v>0.06623617529448045</v>
       </c>
       <c r="O11" t="n">
-        <v>0.07766091994408875</v>
+        <v>0.06623617529448045</v>
       </c>
       <c r="P11" t="n">
         <v>1.867974010242579</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[0.20755266780473214, 3.528395352680427]</t>
+          <t>[0.32076321388003937, 3.4151848066051196]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0.02831859753591637</v>
+        <v>0.01907371203825869</v>
       </c>
       <c r="S11" t="n">
-        <v>0.02831859753591637</v>
+        <v>0.01907371203825869</v>
       </c>
       <c r="T11" t="n">
         <v>9.722424747483709</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[5.531141472571845, 13.913708022395573]</t>
+          <t>[5.526477722221191, 13.918371772746227]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>2.71768716975096e-05</v>
+        <v>2.764286617940037e-05</v>
       </c>
       <c r="W11" t="n">
-        <v>2.71768716975096e-05</v>
+        <v>2.764286617940037e-05</v>
       </c>
       <c r="X11" t="n">
         <v>17.28648648648677</v>
       </c>
       <c r="Y11" t="n">
-        <v>10.78558558558577</v>
+        <v>11.22882882882902</v>
       </c>
       <c r="Z11" t="n">
-        <v>23.78738738738777</v>
+        <v>23.34414414414453</v>
       </c>
     </row>
     <row r="12">
@@ -1459,51 +1459,51 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[0.8249184445311037, 12.816618551531068]</t>
+          <t>[0.7049958811059565, 12.936541114956215]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.02668654386422853</v>
+        <v>0.02964039021816256</v>
       </c>
       <c r="O12" t="n">
-        <v>0.02668654386422853</v>
+        <v>0.02964039021816256</v>
       </c>
       <c r="P12" t="n">
         <v>1.779921363295118</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[0.5471843060306547, 3.012658420559582]</t>
+          <t>[0.5597632555945777, 3.000079470995659]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>0.005628918868783694</v>
+        <v>0.005192509061223483</v>
       </c>
       <c r="S12" t="n">
-        <v>0.005628918868783694</v>
+        <v>0.005192509061223483</v>
       </c>
       <c r="T12" t="n">
         <v>7.778997877132688</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[4.303095213695277, 11.254900540570098]</t>
+          <t>[4.301141422094414, 11.256854332170962]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>4.645425796745428e-05</v>
+        <v>4.683703714847276e-05</v>
       </c>
       <c r="W12" t="n">
-        <v>4.645425796745428e-05</v>
+        <v>4.683703714847276e-05</v>
       </c>
       <c r="X12" t="n">
         <v>17.63123123123152</v>
       </c>
       <c r="Y12" t="n">
-        <v>12.80480480480501</v>
+        <v>12.85405405405426</v>
       </c>
       <c r="Z12" t="n">
-        <v>22.45765765765803</v>
+        <v>22.40840840840878</v>
       </c>
     </row>
     <row r="13">
@@ -1545,51 +1545,51 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[0.3157668208163269, 12.969140937830872]</t>
+          <t>[0.5378349307005461, 12.747072827946653]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0.04003383262178528</v>
+        <v>0.03362855998544267</v>
       </c>
       <c r="O13" t="n">
-        <v>0.04003383262178528</v>
+        <v>0.03362855998544267</v>
       </c>
       <c r="P13" t="n">
         <v>1.641552918091964</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[0.40881586082750054, 2.8742899753564277]</t>
+          <t>[0.3333421634439624, 2.949763672739966]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>0.01019575836543307</v>
+        <v>0.01507625578474614</v>
       </c>
       <c r="S13" t="n">
-        <v>0.01019575836543307</v>
+        <v>0.01507625578474614</v>
       </c>
       <c r="T13" t="n">
         <v>7.969691717065167</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[4.328821352819722, 11.610562081310611]</t>
+          <t>[4.331737122908601, 11.607646311221734]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>6.390647196985455e-05</v>
+        <v>6.318360830626091e-05</v>
       </c>
       <c r="W13" t="n">
-        <v>6.390647196985455e-05</v>
+        <v>6.318360830626091e-05</v>
       </c>
       <c r="X13" t="n">
         <v>18.17297297297327</v>
       </c>
       <c r="Y13" t="n">
-        <v>13.34654654654677</v>
+        <v>13.05105105105127</v>
       </c>
       <c r="Z13" t="n">
-        <v>22.99939939939978</v>
+        <v>23.29489489489528</v>
       </c>
     </row>
     <row r="14">
@@ -1631,51 +1631,51 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[0.08414062820718904, 13.007309660466285]</t>
+          <t>[0.2343935161230899, 12.857056772550385]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0.04721150351705639</v>
+        <v>0.04240271435993059</v>
       </c>
       <c r="O14" t="n">
-        <v>0.04721150351705639</v>
+        <v>0.04240271435993059</v>
       </c>
       <c r="P14" t="n">
         <v>1.50318447288881</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[0.14465791998511524, 2.8617110257925047]</t>
+          <t>[0.22013161736865428, 2.7862373284089657]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>0.03088249893073725</v>
+        <v>0.02268972039481554</v>
       </c>
       <c r="S14" t="n">
-        <v>0.03088249893073725</v>
+        <v>0.02268972039481554</v>
       </c>
       <c r="T14" t="n">
         <v>8.09552189972908</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[4.375790744684283, 11.815253054773876]</t>
+          <t>[4.3778569355525825, 11.813186863905578]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>6.933169199685452e-05</v>
+        <v>6.879105987067646e-05</v>
       </c>
       <c r="W14" t="n">
-        <v>6.933169199685452e-05</v>
+        <v>6.879105987067646e-05</v>
       </c>
       <c r="X14" t="n">
         <v>18.71471471471502</v>
       </c>
       <c r="Y14" t="n">
-        <v>13.39579579579601</v>
+        <v>13.69129129129152</v>
       </c>
       <c r="Z14" t="n">
-        <v>24.03363363363403</v>
+        <v>23.73813813813853</v>
       </c>
     </row>
     <row r="15">
@@ -1717,51 +1717,51 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>[-0.34270535968490456, 13.473684344901992]</t>
+          <t>[-0.27959515707974525, 13.410574142296833]</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>0.06196835135467404</v>
+        <v>0.05969123852266778</v>
       </c>
       <c r="O15" t="n">
-        <v>0.06196835135467404</v>
+        <v>0.05969123852266778</v>
       </c>
       <c r="P15" t="n">
         <v>1.37739497724958</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>[-0.09434212172942225, 2.8491320762285817]</t>
+          <t>[-0.0691842226015762, 2.8239741771007356]</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>0.06589800617748121</v>
+        <v>0.06149921519244184</v>
       </c>
       <c r="S15" t="n">
-        <v>0.06589800617748121</v>
+        <v>0.06149921519244184</v>
       </c>
       <c r="T15" t="n">
         <v>8.282430661154187</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>[4.4637983409665045, 12.101062981341869]</t>
+          <t>[4.464363148485774, 12.1004981738226]</t>
         </is>
       </c>
       <c r="V15" t="n">
-        <v>7.274049283467754e-05</v>
+        <v>7.25897753270921e-05</v>
       </c>
       <c r="W15" t="n">
-        <v>7.274049283467754e-05</v>
+        <v>7.25897753270921e-05</v>
       </c>
       <c r="X15" t="n">
         <v>19.20720720720752</v>
       </c>
       <c r="Y15" t="n">
-        <v>13.44504504504527</v>
+        <v>13.54354354354376</v>
       </c>
       <c r="Z15" t="n">
-        <v>24.96936936936978</v>
+        <v>24.87087087087128</v>
       </c>
     </row>
   </sheetData>
